--- a/tables/adverse_outcomes_fisher.xlsx
+++ b/tables/adverse_outcomes_fisher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Bike-Injuries/Manuscript/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_CE62FDCE8F79A8D366075C52F36EF273D394F952" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0631754E-C654-4176-8D74-ECB32E11676D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_6D63FDCE8F79A8D366075C52F36E8AF541EEBC2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA41747-FA86-4DF1-ADA6-8906D43E92C2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,79 +43,79 @@
     <t>Hypotensive</t>
   </si>
   <si>
-    <t>1.65 [1.52-1.79]</t>
+    <t>1.65 [1.52-1.81]</t>
   </si>
   <si>
     <t>Alcohol Withdrawal Sydrome</t>
   </si>
   <si>
-    <t>6.18 [4.83-8.02]</t>
+    <t>7.3 [5.56-9.75]</t>
   </si>
   <si>
     <t>Cardiac Arrest</t>
   </si>
   <si>
-    <t>2.03 [1.69-2.44]</t>
+    <t>1.95 [1.61-2.37]</t>
   </si>
   <si>
     <t>DVT</t>
   </si>
   <si>
-    <t>1.12 [0.95-1.31]</t>
+    <t>1.01 [0.85-1.21]</t>
   </si>
   <si>
     <t>Pulmonary Embolism</t>
   </si>
   <si>
-    <t>1.12 [0.88-1.42]</t>
+    <t>1.05 [0.81-1.36]</t>
   </si>
   <si>
     <t>Acute Kidney Injury</t>
   </si>
   <si>
-    <t>2.43 [1.88-3.17]</t>
+    <t>2.22 [1.67-2.98]</t>
   </si>
   <si>
     <t>Acute Respiratory Distress Syndrome</t>
   </si>
   <si>
-    <t>2.37 [1.71-3.33]</t>
+    <t>2.31 [1.63-3.33]</t>
   </si>
   <si>
     <t>Sepsis</t>
   </si>
   <si>
-    <t>2.21 [1.6-3.1]</t>
+    <t>1.92 [1.36-2.76]</t>
   </si>
   <si>
     <t>Stroke / CVA</t>
   </si>
   <si>
-    <t>1.62 [1.21-2.19]</t>
+    <t>1.3 [0.95-1.8]</t>
   </si>
   <si>
     <t>Hospital-aquired pneumonia</t>
   </si>
   <si>
-    <t>1.97 [1.62-2.41]</t>
+    <t>1.64 [1.33-2.04]</t>
   </si>
   <si>
     <t>Unplanned Intubation</t>
   </si>
   <si>
-    <t>2.47 [2.09-2.93]</t>
+    <t>2.38 [1.98-2.86]</t>
   </si>
   <si>
     <t>Unplanned admission to ICU</t>
   </si>
   <si>
-    <t>1.34 [1.19-1.51]</t>
+    <t>1.2 [1.06-1.37]</t>
   </si>
   <si>
     <t>Unplanned admission to OR</t>
   </si>
   <si>
-    <t>1.45 [1.23-1.72]</t>
+    <t>1.32 [1.1-1.58]</t>
   </si>
 </sst>
 </file>
@@ -471,12 +471,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -505,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2.9586343191964061E-34</v>
+        <v>1.653844369198656</v>
       </c>
       <c r="C2">
-        <v>1.648173073957351</v>
+        <v>1.5157346750667691</v>
       </c>
       <c r="D2">
-        <v>1.5162245531818239</v>
+        <v>1.806044375142358</v>
       </c>
       <c r="E2">
-        <v>1.7930699046701939</v>
+        <v>8.6131588338098967E-32</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -525,16 +526,16 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3.3017869950917552E-76</v>
+        <v>7.3005703875668173</v>
       </c>
       <c r="C3">
-        <v>6.1815533893908681</v>
+        <v>5.561718170682588</v>
       </c>
       <c r="D3">
-        <v>4.8312659686853792</v>
+        <v>9.7485039295093578</v>
       </c>
       <c r="E3">
-        <v>8.0184019801689459</v>
+        <v>2.086406311917126E-78</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -545,16 +546,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>2.2843208499797999E-16</v>
+        <v>1.948358091097121</v>
       </c>
       <c r="C4">
-        <v>2.027625760184959</v>
+        <v>1.612219589880393</v>
       </c>
       <c r="D4">
-        <v>1.6933640676417949</v>
+        <v>2.365781006420729</v>
       </c>
       <c r="E4">
-        <v>2.4393035693511518</v>
+        <v>2.5453077135377501E-13</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -565,16 +566,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1695838582322664</v>
+        <v>1.014109492890781</v>
       </c>
       <c r="C5">
-        <v>1.118666704843096</v>
+        <v>0.85372717395212494</v>
       </c>
       <c r="D5">
-        <v>0.95467183010183732</v>
+        <v>1.206722995600036</v>
       </c>
       <c r="E5">
-        <v>1.3134417050026299</v>
+        <v>0.89711811960803334</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -585,16 +586,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.38056055742992362</v>
+        <v>1.0500598642361909</v>
       </c>
       <c r="C6">
-        <v>1.11598196498637</v>
+        <v>0.81399066034196665</v>
       </c>
       <c r="D6">
-        <v>0.87995257979889163</v>
+        <v>1.360310265479846</v>
       </c>
       <c r="E6">
-        <v>1.421989223559611</v>
+        <v>0.75259605583229749</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -605,16 +606,16 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>1.7519508665547161E-13</v>
+        <v>2.220166407569824</v>
       </c>
       <c r="C7">
-        <v>2.4269918509825739</v>
+        <v>1.674162600708303</v>
       </c>
       <c r="D7">
-        <v>1.877065810157138</v>
+        <v>2.9797993717780571</v>
       </c>
       <c r="E7">
-        <v>3.1726495188214838</v>
+        <v>2.8693095758503348E-9</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -625,16 +626,16 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>1.6336019097017861E-8</v>
+        <v>2.3050759861956762</v>
       </c>
       <c r="C8">
-        <v>2.3680973708115518</v>
+        <v>1.6281568390995049</v>
       </c>
       <c r="D8">
-        <v>1.712922704193347</v>
+        <v>3.3268858435436819</v>
       </c>
       <c r="E8">
-        <v>3.3325044144818721</v>
+        <v>4.0845417592829817E-7</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -645,16 +646,16 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>2.2395558550890621E-7</v>
+        <v>1.9245051035886871</v>
       </c>
       <c r="C9">
-        <v>2.2092640626533671</v>
+        <v>1.3643659622172339</v>
       </c>
       <c r="D9">
-        <v>1.599339950525466</v>
+        <v>2.760017359232962</v>
       </c>
       <c r="E9">
-        <v>3.10388552132425</v>
+        <v>8.9775810645677809E-5</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -665,16 +666,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>9.4041075846111187E-4</v>
+        <v>1.3043859695636379</v>
       </c>
       <c r="C10">
-        <v>1.61802559171159</v>
+        <v>0.95280350956497051</v>
       </c>
       <c r="D10">
-        <v>1.2064117155660561</v>
+        <v>1.8021616218258329</v>
       </c>
       <c r="E10">
-        <v>2.1941993088602638</v>
+        <v>9.7639777272676212E-2</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -685,16 +686,16 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>3.5024963585269832E-13</v>
+        <v>1.641398735980077</v>
       </c>
       <c r="C11">
-        <v>1.970347515530751</v>
+        <v>1.3306925759453949</v>
       </c>
       <c r="D11">
-        <v>1.622165796755271</v>
+        <v>2.035063459506635</v>
       </c>
       <c r="E11">
-        <v>2.4060631809058899</v>
+        <v>1.389014977471453E-6</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -705,16 +706,16 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>2.7880032144214441E-31</v>
+        <v>2.3758672983200588</v>
       </c>
       <c r="C12">
-        <v>2.468121072460506</v>
+        <v>1.984691887240323</v>
       </c>
       <c r="D12">
-        <v>2.0898438483916042</v>
+        <v>2.8579587560405111</v>
       </c>
       <c r="E12">
-        <v>2.927998790754331</v>
+        <v>2.1562214629268769E-24</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -725,16 +726,16 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>8.8747588750873568E-7</v>
+        <v>1.2027384573378419</v>
       </c>
       <c r="C13">
-        <v>1.3392834895251911</v>
+        <v>1.0591020966713951</v>
       </c>
       <c r="D13">
-        <v>1.1889172903623599</v>
+        <v>1.3676479034575959</v>
       </c>
       <c r="E13">
-        <v>1.5107589941324531</v>
+        <v>3.9457248045492409E-3</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -745,16 +746,16 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>6.7883418631208993E-6</v>
+        <v>1.3169625286337789</v>
       </c>
       <c r="C14">
-        <v>1.4480500895084569</v>
+        <v>1.1022262893813519</v>
       </c>
       <c r="D14">
-        <v>1.226022522368625</v>
+        <v>1.5779132609056821</v>
       </c>
       <c r="E14">
-        <v>1.715515129649017</v>
+        <v>1.9200657914090521E-3</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
